--- a/labs/03_solvent-transfer/lab/transfer-free-energy.xlsx
+++ b/labs/03_solvent-transfer/lab/transfer-free-energy.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/teaching/ch465_physical-biochemistry/physical-biochemistry/labs/03_solvent-transfer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/teaching/ch465_physical-biochemistry/physical-biochemistry/labs/03_solvent-transfer/lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF92BC7-A60B-2544-AD12-D9F26E3D55E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA4374-098A-3942-B10D-F69F013DBDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="460" windowWidth="24500" windowHeight="17540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="480" windowWidth="24500" windowHeight="17540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hydrophobicity" sheetId="1" r:id="rId1"/>
+    <sheet name="neutral side chains" sheetId="1" r:id="rId1"/>
+    <sheet name="ionized side chains" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>@300K</t>
   </si>
@@ -39,9 +40,6 @@
     <t>amino acid</t>
   </si>
   <si>
-    <t>neutral sidechains</t>
-  </si>
-  <si>
     <t>alanine</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
     <t>valine</t>
   </si>
   <si>
-    <t>ionized</t>
-  </si>
-  <si>
     <t>aspartic acid</t>
   </si>
   <si>
@@ -112,9 +107,6 @@
   </si>
   <si>
     <t>arginine</t>
-  </si>
-  <si>
-    <t>* amino acid sidechain in neutral form</t>
   </si>
   <si>
     <t>hexane</t>
@@ -187,27 +179,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -235,66 +207,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,19 +459,19 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>hydrophobicity!$P$28:$P$41</c:f>
+              <c:f>'neutral side chains'!$O$22:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>hydrophobicity!$T$24:$T$41</c:f>
+              <c:f>'neutral side chains'!$S$22:$S$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1210,15 +1229,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1546,1308 +1565,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.1640625"/>
-    <col min="2" max="2" width="13.1640625"/>
-    <col min="3" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.6640625" customWidth="1"/>
-    <col min="15" max="1029" width="13.1640625"/>
+    <col min="1" max="1" width="13.1640625"/>
+    <col min="2" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="1028" width="13.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="C1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="11"/>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="12"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9">
+        <v>-2.7195999999999998</v>
+      </c>
+      <c r="C4" s="18">
+        <v>-2.7865440000000001</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-3.3513840000000004</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1.8242240000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>23.401999999999987</v>
+      </c>
+      <c r="G4" s="17">
+        <v>-4.1890000000000001</v>
+      </c>
+      <c r="H4" s="17">
+        <v>-5.8010000000000161</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="U4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>-2.7195999999999998</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-2.7865440000000001</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B5" s="9">
+        <v>-1.2552000000000001</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-5.6818720000000003</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4.1840000000000002E-2</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="9">
+        <v>-8.3979999999999677</v>
+      </c>
+      <c r="G5" s="17">
+        <v>22.254999999999995</v>
+      </c>
+      <c r="H5" s="17">
+        <v>24.263000000000005</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="U5" s="2"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-3.0215999999999998</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-9.9955759999999998</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-2.4350879999999999</v>
+      </c>
+      <c r="E6" s="30">
+        <v>-5.3973599999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-6.13900000000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-6.9010000000000034</v>
+      </c>
+      <c r="H6" s="17">
+        <v>52.22199999999998</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="U6" s="2"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-4.8952799999999996</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-5.3764399999999997</v>
+      </c>
+      <c r="D7" s="18">
+        <v>-6.179768000000001</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="9">
+        <v>-5.9359999999999786</v>
+      </c>
+      <c r="G7" s="17">
+        <v>-6.9010000000000034</v>
+      </c>
+      <c r="H7" s="17">
+        <v>-16.309000000000012</v>
+      </c>
+      <c r="I7" s="17">
+        <v>55.597999999999999</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-4.3516000000000004</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-7.9328640000000004</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-2.481112</v>
+      </c>
+      <c r="E8" s="30">
+        <v>-4.2676800000000004</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.96399999999999864</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-6.1810000000000009</v>
+      </c>
+      <c r="H8" s="17">
+        <v>84.155000000000001</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="U8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-1.58992</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-0.85771999999999993</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.41840000000000005</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="9">
+        <v>0.88900000000001</v>
+      </c>
+      <c r="G9" s="17">
+        <v>47.998999999999995</v>
+      </c>
+      <c r="H9" s="17">
+        <v>33.662000000000006</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="U10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>-4.1016000000000004</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-2.7530720000000004</v>
+      </c>
+      <c r="D11" s="18">
         <v>-3.3513840000000004</v>
       </c>
-      <c r="F4" s="6">
-        <v>1.8242240000000001</v>
-      </c>
-      <c r="G4" s="17">
-        <v>337.94099999999997</v>
-      </c>
-      <c r="H4" s="6">
-        <v>33.368000000000002</v>
-      </c>
-      <c r="I4" s="6">
-        <v>138.37899999999999</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="V4" s="5"/>
-      <c r="X4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-1.2552000000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-5.6818720000000003</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.1840000000000002E-2</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="17">
-        <v>306.14100000000002</v>
-      </c>
-      <c r="H5" s="6">
-        <v>59.811999999999998</v>
-      </c>
-      <c r="I5" s="6">
-        <v>168.44300000000001</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="V5" s="5"/>
-      <c r="X5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-3.0215999999999998</v>
-      </c>
-      <c r="D6" s="6">
-        <v>-9.9955759999999998</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-2.4350879999999999</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-5.3973599999999999</v>
-      </c>
-      <c r="G6" s="17">
-        <v>308.39999999999998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>30.655999999999999</v>
-      </c>
-      <c r="I6" s="6">
-        <v>196.40199999999999</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="V6" s="5"/>
-      <c r="X6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-4.8952799999999996</v>
-      </c>
-      <c r="D7" s="6">
-        <v>-5.3764399999999997</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-6.179768000000001</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="17">
-        <v>308.60300000000001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>30.655999999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>127.871</v>
-      </c>
-      <c r="J7" s="6">
-        <v>55.597999999999999</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="V7" s="5"/>
-      <c r="X7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-4.3516000000000004</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-7.9328640000000004</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-2.481112</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-4.2676800000000004</v>
-      </c>
-      <c r="G8" s="17">
-        <v>315.50299999999999</v>
-      </c>
-      <c r="H8" s="6">
-        <v>31.376000000000001</v>
-      </c>
-      <c r="I8" s="6">
-        <v>228.33500000000001</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="V8" s="5"/>
-      <c r="X8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-1.58992</v>
-      </c>
-      <c r="D9" s="6">
-        <v>-0.85771999999999993</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.41840000000000005</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17">
-        <v>315.428</v>
-      </c>
-      <c r="H9" s="6">
-        <v>85.555999999999997</v>
-      </c>
-      <c r="I9" s="6">
-        <v>177.84200000000001</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="V9" s="5"/>
-      <c r="X9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>314.53899999999999</v>
-      </c>
-      <c r="H10" s="6">
-        <v>37.557000000000002</v>
-      </c>
-      <c r="I10" s="6">
-        <v>144.18</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="V10" s="5"/>
-      <c r="X10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="30">
+        <v>-2.5104000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <v>53.424000000000035</v>
+      </c>
+      <c r="G11" s="18">
+        <v>32.656999999999996</v>
+      </c>
+      <c r="H11" s="18">
+        <v>-29.342000000000013</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="U11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
-        <v>-4.1016000000000004</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-2.7530720000000004</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-3.3513840000000004</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-2.5104000000000002</v>
-      </c>
-      <c r="G11" s="17">
-        <v>367.96300000000002</v>
-      </c>
-      <c r="H11" s="12">
-        <v>70.213999999999999</v>
-      </c>
-      <c r="I11" s="12">
-        <v>114.83799999999999</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="V11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9">
+        <v>-9.4976800000000008</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-9.598096</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-13.26328</v>
+      </c>
+      <c r="E12" s="30">
+        <v>-11.531103999999999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>87.119000000000028</v>
+      </c>
+      <c r="G12" s="18">
+        <v>-6.1810000000000009</v>
+      </c>
+      <c r="H12" s="18">
+        <v>-27.543000000000006</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="U12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
-        <v>-9.4976800000000008</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-9.598096</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-13.26328</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-11.531103999999999</v>
-      </c>
-      <c r="G12" s="17">
-        <v>401.65800000000002</v>
-      </c>
-      <c r="H12" s="12">
-        <v>31.376000000000001</v>
-      </c>
-      <c r="I12" s="12">
-        <v>116.637</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="V12" s="5"/>
-      <c r="X12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9">
+        <v>-10.041600000000001</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-10.6</v>
+      </c>
+      <c r="D13" s="18">
+        <v>-8.9955999999999996</v>
+      </c>
+      <c r="E13" s="30">
+        <v>-11.715199999999999</v>
+      </c>
+      <c r="F13" s="9">
+        <v>90.153999999999996</v>
+      </c>
+      <c r="G13" s="18">
+        <v>-8.2410000000000032</v>
+      </c>
+      <c r="H13" s="18">
+        <v>-21.354000000000013</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="U13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
-        <v>-10.041600000000001</v>
-      </c>
-      <c r="D13" s="6">
-        <v>-10.6</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-8.9955999999999996</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-11.715199999999999</v>
-      </c>
-      <c r="G13" s="17">
-        <v>404.69299999999998</v>
-      </c>
-      <c r="H13" s="12">
-        <v>29.315999999999999</v>
-      </c>
-      <c r="I13" s="12">
-        <v>122.82599999999999</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="V13" s="5"/>
-      <c r="X13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9">
+        <v>-7.6148800000000003</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-9.7236159999999998</v>
+      </c>
+      <c r="D14" s="18">
+        <v>-6.8324720000000001</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="9">
+        <v>66.860000000000014</v>
+      </c>
+      <c r="G14" s="18">
+        <v>-4.1890000000000001</v>
+      </c>
+      <c r="H14" s="18">
+        <v>-20.26400000000001</v>
+      </c>
+      <c r="I14" s="18">
+        <v>47.558</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="U14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>-7.6148800000000003</v>
-      </c>
-      <c r="D14" s="6">
-        <v>-9.7236159999999998</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-6.8324720000000001</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="17">
-        <v>381.399</v>
-      </c>
-      <c r="H14" s="12">
-        <v>33.368000000000002</v>
-      </c>
-      <c r="I14" s="12">
-        <v>123.916</v>
-      </c>
-      <c r="J14" s="12">
-        <v>47.558</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="6"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9">
+        <v>-11.966240000000001</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-12.618944000000001</v>
+      </c>
+      <c r="D15" s="18">
+        <v>-12.054103999999999</v>
+      </c>
+      <c r="E15" s="30">
+        <v>-10.83656</v>
+      </c>
+      <c r="F15" s="9">
+        <v>106.404</v>
+      </c>
+      <c r="G15" s="17">
+        <v>-6.9010000000000034</v>
+      </c>
+      <c r="H15" s="17">
+        <v>-31.815000000000012</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="U15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
-        <v>-11.966240000000001</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-12.618944000000001</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-12.054103999999999</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-10.83656</v>
-      </c>
-      <c r="G15" s="17">
-        <v>420.94299999999998</v>
-      </c>
-      <c r="H15" s="6">
-        <v>30.655999999999999</v>
-      </c>
-      <c r="I15" s="6">
-        <v>112.36499999999999</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="6"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="V15" s="5"/>
-      <c r="X15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9">
+        <v>-4.2258399999999998</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="9">
+        <v>48.847000000000037</v>
+      </c>
+      <c r="G16" s="17">
+        <v>-6.213000000000001</v>
+      </c>
+      <c r="H16" s="17">
+        <v>-18.197000000000003</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="U16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
-        <v>-4.2258399999999998</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="17">
-        <v>363.38600000000002</v>
-      </c>
-      <c r="H16" s="6">
-        <v>31.344000000000001</v>
-      </c>
-      <c r="I16" s="6">
-        <v>125.983</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="6"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="V16" s="5"/>
-      <c r="X16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9">
+        <v>-2.8869600000000002</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-2.2300720000000003</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.12970400000000001</v>
+      </c>
+      <c r="E17" s="30">
+        <v>3.3472000000000004</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-0.66599999999999682</v>
+      </c>
+      <c r="G17" s="17">
+        <v>-6.1810000000000009</v>
+      </c>
+      <c r="H17" s="17">
+        <v>23.439999999999998</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="U17" s="2"/>
+      <c r="W17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
-        <v>-2.8869600000000002</v>
-      </c>
-      <c r="D17" s="6">
-        <v>-2.2300720000000003</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="B18" s="9">
+        <v>-3.7656000000000001</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-3.2384160000000004</v>
+      </c>
+      <c r="D18" s="18">
         <v>0.12970400000000001</v>
       </c>
-      <c r="F17" s="6">
-        <v>3.3472000000000004</v>
-      </c>
-      <c r="G17" s="17">
-        <v>313.87299999999999</v>
-      </c>
-      <c r="H17" s="6">
-        <v>31.376000000000001</v>
-      </c>
-      <c r="I17" s="6">
-        <v>167.62</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="6"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="V17" s="5"/>
-      <c r="X17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="30">
+        <v>0.171544</v>
+      </c>
+      <c r="F18" s="9">
+        <v>28.711000000000013</v>
+      </c>
+      <c r="G18" s="17">
+        <v>-8.2410000000000032</v>
+      </c>
+      <c r="H18" s="17">
+        <v>18.022999999999996</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="U18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
-        <v>-3.7656000000000001</v>
-      </c>
-      <c r="D18" s="6">
-        <v>-3.2384160000000004</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.12970400000000001</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.171544</v>
-      </c>
-      <c r="G18" s="17">
-        <v>343.25</v>
-      </c>
-      <c r="H18" s="6">
-        <v>29.315999999999999</v>
-      </c>
-      <c r="I18" s="6">
-        <v>162.203</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="6"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="V18" s="5"/>
-      <c r="X18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9">
+        <v>-13.55616</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-17.865679999999998</v>
+      </c>
+      <c r="D19" s="18">
+        <v>-15.970328000000002</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="9">
+        <v>103.95400000000001</v>
+      </c>
+      <c r="G19" s="17">
+        <v>17.314</v>
+      </c>
+      <c r="H19" s="17">
+        <v>-32.555000000000007</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="U19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
-        <v>-13.55616</v>
-      </c>
-      <c r="D19" s="6">
-        <v>-17.865679999999998</v>
-      </c>
-      <c r="E19" s="6">
-        <v>-15.970328000000002</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="17">
-        <v>418.49299999999999</v>
-      </c>
-      <c r="H19" s="6">
-        <v>54.871000000000002</v>
-      </c>
-      <c r="I19" s="6">
-        <v>111.625</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="6"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="V19" s="5"/>
-      <c r="X19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9">
+        <v>-7.7404000000000002</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-14.961984000000001</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-11.183832000000001</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="20">
+        <v>75.662000000000035</v>
+      </c>
+      <c r="G20" s="17">
+        <v>-6.9010000000000034</v>
+      </c>
+      <c r="H20" s="17">
+        <v>17.301999999999992</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="U20" s="2"/>
+      <c r="W20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4">
-        <v>-7.7404000000000002</v>
-      </c>
-      <c r="D20" s="6">
-        <v>-14.961984000000001</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-11.183832000000001</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="18">
-        <v>390.20100000000002</v>
-      </c>
-      <c r="H20" s="6">
-        <v>30.655999999999999</v>
-      </c>
-      <c r="I20" s="6">
-        <v>161.482</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="6"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="V20" s="5"/>
-      <c r="X20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="9">
         <v>-6.9036</v>
       </c>
-      <c r="D21" s="6">
+      <c r="C21" s="18">
         <v>-7.0500400000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="D21" s="18">
         <v>-7.702744</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E21" s="30">
         <v>-7.3220000000000001</v>
       </c>
-      <c r="G21" s="18">
-        <v>377.303</v>
-      </c>
-      <c r="H21" s="6">
-        <v>31.376000000000001</v>
-      </c>
-      <c r="I21" s="6">
-        <v>117.276</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="6"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="V21" s="5"/>
-      <c r="X21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="5"/>
-      <c r="X22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10.41816</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="12">
-        <v>30.655999999999999</v>
-      </c>
-      <c r="I23" s="12">
-        <v>196.40199999999999</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="7"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="5"/>
-      <c r="X23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10.37632</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="12">
-        <v>31.376000000000001</v>
-      </c>
-      <c r="I24" s="12">
-        <v>228.33500000000001</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="7"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="5"/>
-      <c r="X24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.9036</v>
-      </c>
-      <c r="D25" s="6">
-        <v>-5.171424</v>
-      </c>
-      <c r="E25" s="6">
-        <v>-6.7027680000000007</v>
-      </c>
-      <c r="F25" s="6">
-        <v>-1.0878400000000001</v>
-      </c>
-      <c r="G25" s="17">
-        <v>368.96199999999999</v>
-      </c>
-      <c r="H25" s="12">
-        <v>88.644000000000005</v>
-      </c>
-      <c r="I25" s="12">
-        <v>123.7</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="7"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="5"/>
-      <c r="X25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4.9371200000000002</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="17">
-        <v>367.96300000000002</v>
-      </c>
-      <c r="H26" s="12">
-        <v>70.213999999999999</v>
-      </c>
-      <c r="I26" s="12">
-        <v>114.83799999999999</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="7"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="5"/>
-      <c r="X26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2.7195999999999998</v>
-      </c>
-      <c r="D27" s="6">
-        <v>-2.1924160000000001</v>
-      </c>
-      <c r="E27" s="6">
-        <v>-3.2635200000000002</v>
-      </c>
-      <c r="F27" s="6">
-        <v>6.2759999999999998</v>
-      </c>
-      <c r="G27" s="17">
-        <v>352.53199999999998</v>
-      </c>
-      <c r="H27" s="12">
-        <v>149.196</v>
-      </c>
-      <c r="I27" s="12">
-        <v>135.048</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="7"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="5"/>
-      <c r="X27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="O28" s="7"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="O30" s="7"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="O31" s="7"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="O32" s="7"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="7"/>
-    </row>
-    <row r="33" spans="15:21">
-      <c r="O33" s="7"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="15:21">
-      <c r="O34" s="7"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="15:21">
-      <c r="O35" s="7"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="15:21">
-      <c r="O36" s="7"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="15:21">
-      <c r="O37" s="7"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="15:21">
-      <c r="O38" s="7"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="15:21">
-      <c r="O39" s="7"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="15:21">
-      <c r="O40" s="7"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="15:21">
-      <c r="O41" s="7"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="15:21">
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-    </row>
-    <row r="43" spans="15:21">
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-    </row>
-    <row r="44" spans="15:21">
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-    </row>
-    <row r="45" spans="15:21">
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-    </row>
-    <row r="46" spans="15:21">
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="15:21">
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="15:21">
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="15:31">
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="AE49">
+      <c r="F21" s="20">
+        <v>62.76400000000001</v>
+      </c>
+      <c r="G21" s="17">
+        <v>-6.1810000000000009</v>
+      </c>
+      <c r="H21" s="17">
+        <v>-26.904000000000011</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="U21" s="2"/>
+      <c r="W21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="N22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="N24" s="4"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="N25" s="4"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="N26" s="4"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="N27" s="4"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="N28" s="4"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="N29" s="4"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="14:30">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="14:30">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="14:30">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="14:30">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="14:30">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="14:30">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="14:30">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="AD39">
         <v>0.12280000000000001</v>
       </c>
     </row>
-    <row r="50" spans="15:31">
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="AE50">
+    <row r="40" spans="14:30">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="AD40">
         <v>0.1552</v>
       </c>
     </row>
-    <row r="51" spans="15:31">
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="AE51">
+    <row r="41" spans="14:30">
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="AD41">
         <v>0.15920000000000001</v>
       </c>
     </row>
-    <row r="52" spans="15:31">
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="AE52">
+    <row r="42" spans="14:30">
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="AD42">
         <v>0.1749</v>
       </c>
     </row>
-    <row r="53" spans="15:31">
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
+    <row r="43" spans="14:30">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C1:F1"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2857,4 +2602,219 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71C6D28-EB81-A144-B466-C82184DAE7E0}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="11"/>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="12"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>10.41816</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="9">
+        <v>-6.13900000000001</v>
+      </c>
+      <c r="G4" s="18">
+        <v>-6.9010000000000034</v>
+      </c>
+      <c r="H4" s="18">
+        <v>52.22199999999998</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10.37632</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="9">
+        <v>0.96399999999999864</v>
+      </c>
+      <c r="G5" s="18">
+        <v>-6.1810000000000009</v>
+      </c>
+      <c r="H5" s="18">
+        <v>84.155000000000001</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6.9036</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-5.171424</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-6.7027680000000007</v>
+      </c>
+      <c r="E6" s="30">
+        <v>-1.0878400000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>54.423000000000002</v>
+      </c>
+      <c r="G6" s="18">
+        <v>51.087000000000003</v>
+      </c>
+      <c r="H6" s="18">
+        <v>-20.480000000000004</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4.9371200000000002</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="9">
+        <v>53.424000000000035</v>
+      </c>
+      <c r="G7" s="18">
+        <v>32.656999999999996</v>
+      </c>
+      <c r="H7" s="18">
+        <v>-29.342000000000013</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.7195999999999998</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-2.1924160000000001</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-3.2635200000000002</v>
+      </c>
+      <c r="E8" s="30">
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="F8" s="9">
+        <v>37.992999999999995</v>
+      </c>
+      <c r="G8" s="18">
+        <v>111.639</v>
+      </c>
+      <c r="H8" s="18">
+        <v>-9.132000000000005</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>